--- a/biology/Histoire de la zoologie et de la botanique/Société_botanique_allemande/Société_botanique_allemande.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_botanique_allemande/Société_botanique_allemande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_allemande</t>
+          <t>Société_botanique_allemande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société botanique allemande (Deutschen Botanischen Gesellschaft) est une société savante consacrée à la botanique fondée en 1882 à Berlin. Organisme sans but lucratif, cette société a pour but de représenter les sciences botaniques dans les régions germanophones et de promouvoir l’étude scientifique des végétaux tant en Allemagne que sur le plan international.
 La société fait paraître le bimensuel Plant Biology qui succède à Botanica Acta (1988-1998) lui-même ayant pris la suite de Berichte der Deutschen Botanischen Gesellschaft (1882-1987).
